--- a/projects/training_NSGA2a.xlsx
+++ b/projects/training_NSGA2a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="2970" windowHeight="9105" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="2976" windowHeight="9108" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1732,9 +1732,6 @@
     <t>Measure Directory Name</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>AnalysisType</t>
   </si>
   <si>
@@ -1945,9 +1942,6 @@
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Worker Only - </t>
   </si>
   <si>
@@ -2090,6 +2084,12 @@
   </si>
   <si>
     <t>Office NSGA 2a</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
+  </si>
+  <si>
+    <t>1.6.1-rc1</t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2211,6 +2211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3644,7 +3650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3728,6 +3734,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5458,9 +5465,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -5488,21 +5495,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="31"/>
       <c r="C1" s="19"/>
@@ -5511,7 +5518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>438</v>
       </c>
@@ -5520,18 +5527,18 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>563</v>
+        <v>681</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>462</v>
       </c>
@@ -5547,29 +5554,29 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
@@ -5580,10 +5587,10 @@
         <v>$0.14/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
@@ -5602,7 +5609,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>464</v>
       </c>
@@ -5612,10 +5619,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="37"/>
       <c r="E9" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -5624,29 +5631,29 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5654,7 +5661,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>472</v>
       </c>
@@ -5665,7 +5672,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>473</v>
       </c>
@@ -5673,10 +5680,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>474</v>
       </c>
@@ -5687,7 +5694,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>476</v>
       </c>
@@ -5703,7 +5710,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -5711,15 +5718,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
       <c r="D22" s="2"/>
     </row>
@@ -5728,38 +5735,42 @@
         <v>454</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B24" s="29">
+        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
         <v>10</v>
       </c>
       <c r="C24" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
         <v>Size of initial population</v>
       </c>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>Generations</v>
       </c>
       <c r="B25" s="29">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
         <v>30</v>
       </c>
       <c r="C25" s="38" t="str">
@@ -5767,10 +5778,10 @@
         <v>Number of generations</v>
       </c>
       <c r="D25" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>cprob</v>
@@ -5815,7 +5826,7 @@
       </c>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>mprob</v>
@@ -5830,7 +5841,7 @@
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>normType</v>
@@ -5845,7 +5856,7 @@
       </c>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>pPower</v>
@@ -5860,7 +5871,7 @@
       </c>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5875,7 +5886,7 @@
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5890,7 +5901,7 @@
       </c>
       <c r="D33" s="39"/>
     </row>
-    <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5905,12 +5916,12 @@
       </c>
       <c r="D34" s="39"/>
     </row>
-    <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -5923,7 +5934,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -5931,7 +5942,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
@@ -5948,24 +5959,24 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
@@ -5973,11 +5984,11 @@
         <v>35</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6012,33 +6023,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A44" activeCellId="5" sqref="A13:XFD13 A21:XFD21 A25:XFD25 A34:XFD34 A39:XFD39 A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -6068,14 +6079,14 @@
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6093,7 +6104,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6170,24 +6181,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
@@ -6207,7 +6218,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
@@ -6243,7 +6254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
@@ -6263,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
@@ -6283,15 +6294,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2</v>
@@ -6303,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
@@ -6323,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>22</v>
       </c>
@@ -6343,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="b">
         <v>1</v>
       </c>
@@ -6351,7 +6362,7 @@
         <v>386</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>79</v>
@@ -6360,43 +6371,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="41">
         <v>0.4</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="41">
         <v>0.3</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="41">
         <v>0.5</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="41">
         <v>0.4</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="41">
         <f>(L13+K13)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R13" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R13" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
@@ -6416,7 +6427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
@@ -6439,7 +6450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="b">
         <v>1</v>
       </c>
@@ -6447,7 +6458,7 @@
         <v>386</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>79</v>
@@ -6456,7 +6467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
@@ -6476,7 +6487,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
@@ -6496,7 +6507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
         <v>22</v>
       </c>
@@ -6513,13 +6524,13 @@
         <v>65</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="b">
         <v>1</v>
       </c>
@@ -6527,7 +6538,7 @@
         <v>386</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>79</v>
@@ -6536,43 +6547,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="41" t="s">
+        <v>679</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="41">
         <v>0.4</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="41">
         <v>0.3</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="41">
         <v>0.5</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="41">
         <v>0.4</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="41">
         <f>(L21+K21)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R21" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R21" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>22</v>
       </c>
@@ -6592,7 +6603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
@@ -6609,13 +6620,13 @@
         <v>65</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="b">
         <v>1</v>
       </c>
@@ -6623,7 +6634,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>79</v>
@@ -6632,43 +6643,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="41">
         <v>0.4</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="41">
         <v>0.3</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="41">
         <v>0.5</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="41">
         <v>0.4</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="41">
         <f>(L25+K25)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R25" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R25" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>22</v>
       </c>
@@ -6688,7 +6699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>22</v>
       </c>
@@ -6705,38 +6716,38 @@
         <v>65</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>2</v>
@@ -6745,21 +6756,21 @@
         <v>65</v>
       </c>
       <c r="I29" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="E30" s="33" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>653</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>2</v>
@@ -6768,21 +6779,21 @@
         <v>65</v>
       </c>
       <c r="I30" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="E31" s="33" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>657</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>2</v>
@@ -6791,18 +6802,18 @@
         <v>65</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>131</v>
@@ -6817,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="b">
         <v>1</v>
       </c>
@@ -6825,7 +6836,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>173</v>
@@ -6834,43 +6845,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="41">
         <v>0.5</v>
       </c>
-      <c r="K34" s="33">
-        <v>0</v>
-      </c>
-      <c r="L34" s="33">
+      <c r="K34" s="41">
+        <v>0</v>
+      </c>
+      <c r="L34" s="41">
         <v>0.8</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="41">
         <v>0.5</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="41">
         <f>(L34+K34)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R34" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R34" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
         <v>22</v>
       </c>
@@ -6893,7 +6904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
         <v>22</v>
       </c>
@@ -6913,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33" t="s">
         <v>22</v>
       </c>
@@ -6930,10 +6941,10 @@
         <v>65</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="b">
         <v>1</v>
       </c>
@@ -6941,7 +6952,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>173</v>
@@ -6950,43 +6961,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+    <row r="39" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="41">
         <v>0.5</v>
       </c>
-      <c r="K39" s="33">
-        <v>0</v>
-      </c>
-      <c r="L39" s="33">
+      <c r="K39" s="41">
+        <v>0</v>
+      </c>
+      <c r="L39" s="41">
         <v>0.8</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="41">
         <v>0.5</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="41">
         <f>(L39+K39)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R39" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
         <v>22</v>
       </c>
@@ -7003,13 +7014,13 @@
         <v>65</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
         <v>22</v>
       </c>
@@ -7029,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
         <v>22</v>
       </c>
@@ -7046,10 +7057,10 @@
         <v>65</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="b">
         <v>1</v>
       </c>
@@ -7057,7 +7068,7 @@
         <v>172</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>173</v>
@@ -7066,43 +7077,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
+    <row r="44" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="E44" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="41">
         <v>0.5</v>
       </c>
-      <c r="K44" s="33">
-        <v>0</v>
-      </c>
-      <c r="L44" s="33">
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
+      <c r="L44" s="41">
         <v>0.8</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M44" s="41">
         <v>0.5</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="41">
         <f>(L44+K44)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R44" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
         <v>22</v>
       </c>
@@ -7119,13 +7130,13 @@
         <v>65</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J45" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="33" t="s">
         <v>22</v>
       </c>
@@ -7145,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>22</v>
       </c>
@@ -7162,35 +7173,35 @@
         <v>65</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>659</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>661</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>2</v>
@@ -7202,15 +7213,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>2</v>
@@ -7222,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7237,7 +7248,7 @@
       <c r="L51" s="17"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -7258,7 +7269,7 @@
       <c r="R52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -7282,7 +7293,7 @@
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -7307,7 +7318,7 @@
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -7332,7 +7343,7 @@
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -7356,7 +7367,7 @@
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -7381,7 +7392,7 @@
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
     </row>
-    <row r="58" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -7406,7 +7417,7 @@
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -7430,7 +7441,7 @@
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
     </row>
-    <row r="60" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7455,7 +7466,7 @@
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -7480,7 +7491,7 @@
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
     </row>
-    <row r="62" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -7504,7 +7515,7 @@
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -7531,7 +7542,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -7558,7 +7569,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="33"/>
@@ -7577,7 +7588,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="33"/>
@@ -7596,7 +7607,7 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="33"/>
@@ -7615,7 +7626,7 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="33"/>
@@ -7637,7 +7648,7 @@
       <c r="X68" s="25"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="33"/>
@@ -7655,7 +7666,7 @@
       <c r="X69" s="25"/>
       <c r="Y69" s="25"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="33"/>
@@ -7673,7 +7684,7 @@
       <c r="X70" s="25"/>
       <c r="Y70" s="25"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="33"/>
@@ -7691,7 +7702,7 @@
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="33"/>
@@ -7709,7 +7720,7 @@
       <c r="X72" s="25"/>
       <c r="Y72" s="25"/>
     </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="33"/>
       <c r="K73" s="4"/>
       <c r="L73" s="1"/>
@@ -7724,7 +7735,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C74" s="33"/>
       <c r="K74" s="4"/>
       <c r="N74" s="17"/>
@@ -7736,7 +7747,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="33"/>
       <c r="K75" s="4"/>
       <c r="L75" s="1"/>
@@ -7751,7 +7762,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" s="33"/>
@@ -7764,7 +7775,7 @@
       <c r="J76"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" s="33"/>
@@ -7777,7 +7788,7 @@
       <c r="J77"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78" s="33"/>
@@ -7790,7 +7801,7 @@
       <c r="J78"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="34"/>
@@ -7811,7 +7822,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="C80" s="33"/>
       <c r="N80" s="1"/>
@@ -7821,7 +7832,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="C81" s="33"/>
       <c r="N81" s="1"/>
@@ -7831,46 +7842,46 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="33"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="33"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="33"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="33"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="33"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="33"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="33"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="33"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
@@ -7878,7 +7889,7 @@
       <c r="P90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="33"/>
@@ -7905,7 +7916,7 @@
       <c r="X91" s="25"/>
       <c r="Y91" s="25"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="33"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -7913,7 +7924,7 @@
       <c r="R92" s="25"/>
       <c r="S92" s="25"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C93" s="34"/>
       <c r="I93" s="1"/>
       <c r="K93" s="4"/>
@@ -7941,16 +7952,16 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -7987,7 +7998,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -8001,12 +8012,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>478</v>
@@ -8020,12 +8031,12 @@
       <c r="H4" s="33"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>478</v>
@@ -8039,7 +8050,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -8047,7 +8058,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -8055,7 +8066,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -8064,7 +8075,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -8073,7 +8084,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -8082,7 +8093,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -8091,7 +8102,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -8100,7 +8111,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -8109,7 +8120,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -8118,31 +8129,31 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="36"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -8151,7 +8162,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -8160,7 +8171,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -8168,7 +8179,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -8176,7 +8187,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -8184,7 +8195,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -8193,7 +8204,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
     </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -8202,7 +8213,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -8211,7 +8222,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -8239,16 +8250,16 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -9011,7 +9022,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>22</v>
@@ -9034,7 +9045,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>22</v>
@@ -9057,7 +9068,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>22</v>
@@ -9080,7 +9091,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>22</v>
@@ -9103,7 +9114,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>22</v>
@@ -9126,7 +9137,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>22</v>
@@ -9149,7 +9160,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -9168,7 +9179,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>22</v>
@@ -9189,7 +9200,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>22</v>
@@ -9212,7 +9223,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>22</v>
@@ -9235,7 +9246,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>22</v>
@@ -9258,7 +9269,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>22</v>
@@ -9281,7 +9292,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>22</v>
@@ -9304,7 +9315,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>22</v>
@@ -9327,7 +9338,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>22</v>
@@ -9350,7 +9361,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>22</v>
@@ -9373,7 +9384,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -9392,7 +9403,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>22</v>
@@ -9413,7 +9424,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>22</v>
@@ -9436,7 +9447,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>22</v>
@@ -9459,7 +9470,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>22</v>
@@ -9482,7 +9493,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>22</v>
@@ -9505,7 +9516,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>22</v>
@@ -9528,7 +9539,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>22</v>
@@ -9551,7 +9562,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>22</v>
@@ -9574,7 +9585,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>22</v>
@@ -9597,7 +9608,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -9616,7 +9627,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>22</v>
@@ -9637,7 +9648,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>22</v>
@@ -9662,7 +9673,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>22</v>
@@ -9685,7 +9696,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>22</v>
@@ -9708,7 +9719,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>22</v>
@@ -9731,7 +9742,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>22</v>
@@ -9754,7 +9765,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>22</v>
@@ -9777,7 +9788,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>22</v>
@@ -9800,7 +9811,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>22</v>
@@ -9823,7 +9834,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>22</v>
@@ -9846,7 +9857,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -9865,7 +9876,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>22</v>
@@ -9886,7 +9897,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>22</v>
@@ -9909,7 +9920,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>22</v>
@@ -9934,7 +9945,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>22</v>
@@ -9957,7 +9968,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>22</v>
@@ -9980,7 +9991,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>22</v>
@@ -10003,7 +10014,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>22</v>
@@ -10026,7 +10037,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>22</v>
@@ -10049,7 +10060,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>22</v>
@@ -10072,7 +10083,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>22</v>
@@ -10095,7 +10106,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>22</v>
@@ -10118,7 +10129,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>22</v>
@@ -10141,7 +10152,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>22</v>
@@ -10164,7 +10175,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -10183,7 +10194,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>22</v>
@@ -10206,7 +10217,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>22</v>
@@ -10229,7 +10240,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>22</v>
@@ -10252,7 +10263,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>22</v>
@@ -10275,7 +10286,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>22</v>
@@ -10298,7 +10309,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>22</v>
@@ -10321,7 +10332,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>22</v>
@@ -10344,7 +10355,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>22</v>
@@ -10367,7 +10378,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>22</v>
@@ -10390,7 +10401,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>22</v>
@@ -10413,7 +10424,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -10432,7 +10443,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>22</v>
@@ -10457,7 +10468,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -10476,7 +10487,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>22</v>
@@ -10497,7 +10508,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>22</v>
@@ -10522,7 +10533,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -10541,7 +10552,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>22</v>
@@ -10564,7 +10575,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>22</v>
@@ -10589,7 +10600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>22</v>
@@ -10612,7 +10623,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>22</v>
@@ -10633,7 +10644,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -10652,7 +10663,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>22</v>
@@ -10677,7 +10688,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>22</v>
@@ -10700,7 +10711,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>22</v>
@@ -10723,7 +10734,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>22</v>
@@ -10746,7 +10757,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>22</v>
@@ -10769,7 +10780,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>22</v>
@@ -10792,7 +10803,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>22</v>
@@ -10815,7 +10826,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -10834,7 +10845,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>22</v>
@@ -10857,7 +10868,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>22</v>
@@ -10880,7 +10891,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>22</v>
@@ -10903,7 +10914,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -10922,7 +10933,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>22</v>
@@ -10945,7 +10956,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>22</v>
@@ -10968,7 +10979,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>22</v>
@@ -10991,7 +11002,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>22</v>
@@ -11014,7 +11025,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>22</v>
@@ -11037,7 +11048,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>22</v>
@@ -11060,7 +11071,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -11079,7 +11090,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>22</v>
@@ -11104,7 +11115,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>22</v>
@@ -11127,7 +11138,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -11150,7 +11161,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>22</v>
@@ -11173,7 +11184,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>22</v>
@@ -11196,7 +11207,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>22</v>
@@ -11219,7 +11230,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>22</v>
@@ -11242,7 +11253,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>22</v>
@@ -11265,7 +11276,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>22</v>
@@ -11288,7 +11299,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -11307,7 +11318,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>22</v>
@@ -11332,7 +11343,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>22</v>
@@ -11353,7 +11364,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>22</v>
@@ -11376,7 +11387,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>22</v>
@@ -11399,7 +11410,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>22</v>
@@ -11422,7 +11433,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>22</v>
@@ -11445,7 +11456,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>22</v>
@@ -11468,7 +11479,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>22</v>
@@ -11491,7 +11502,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>22</v>
@@ -11514,7 +11525,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>22</v>
@@ -11537,7 +11548,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>22</v>
@@ -11560,7 +11571,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>22</v>
@@ -11583,7 +11594,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>22</v>
@@ -11606,7 +11617,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>22</v>
@@ -11629,7 +11640,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -11648,7 +11659,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>22</v>
@@ -11671,7 +11682,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -11690,7 +11701,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>22</v>
@@ -11713,7 +11724,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>22</v>
@@ -11736,7 +11747,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -11755,7 +11766,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>22</v>
@@ -11780,7 +11791,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>22</v>
@@ -11803,7 +11814,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>22</v>
@@ -11826,7 +11837,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>22</v>
@@ -11849,7 +11860,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>22</v>
@@ -11872,7 +11883,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>22</v>
@@ -11895,7 +11906,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>22</v>
@@ -11918,7 +11929,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>22</v>
@@ -11941,7 +11952,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>22</v>
@@ -11964,7 +11975,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>22</v>
@@ -11987,7 +11998,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -12006,7 +12017,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>22</v>
@@ -12031,7 +12042,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>22</v>
@@ -12054,7 +12065,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>22</v>
@@ -12077,7 +12088,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>22</v>
@@ -12100,7 +12111,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>22</v>
@@ -12123,7 +12134,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>22</v>
@@ -12146,7 +12157,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>22</v>
@@ -12169,7 +12180,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>22</v>
@@ -12192,7 +12203,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>22</v>
@@ -12215,7 +12226,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>22</v>
@@ -12238,7 +12249,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -12257,7 +12268,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>22</v>
@@ -12280,7 +12291,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>22</v>
@@ -12303,7 +12314,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>22</v>
@@ -12326,7 +12337,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>22</v>
@@ -12349,7 +12360,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -12368,7 +12379,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>22</v>
@@ -12391,7 +12402,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>22</v>
@@ -12414,7 +12425,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>22</v>
@@ -12437,7 +12448,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>22</v>
@@ -12460,7 +12471,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -12479,7 +12490,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>22</v>
@@ -12500,7 +12511,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>22</v>
@@ -12523,7 +12534,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -12542,7 +12553,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>22</v>
@@ -12565,7 +12576,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>22</v>
@@ -12590,7 +12601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>22</v>
@@ -12611,7 +12622,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>22</v>
@@ -12636,7 +12647,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>22</v>
@@ -12661,7 +12672,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -12680,7 +12691,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>22</v>
@@ -12705,7 +12716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>22</v>
@@ -12728,7 +12739,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>22</v>
@@ -12751,7 +12762,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>22</v>
@@ -12774,7 +12785,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>22</v>
@@ -12797,7 +12808,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>22</v>
@@ -12820,7 +12831,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>22</v>
@@ -12843,7 +12854,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>22</v>
@@ -12866,7 +12877,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>22</v>
@@ -12889,7 +12900,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -12908,7 +12919,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>22</v>
@@ -12933,7 +12944,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>22</v>
@@ -12956,7 +12967,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>22</v>
@@ -12979,7 +12990,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>22</v>
@@ -13002,7 +13013,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>22</v>
@@ -13025,7 +13036,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>22</v>
@@ -13048,7 +13059,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>22</v>
@@ -13071,7 +13082,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>22</v>
@@ -13094,7 +13105,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>22</v>
@@ -13117,7 +13128,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -13136,7 +13147,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>22</v>
@@ -13157,7 +13168,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>22</v>
@@ -13180,7 +13191,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>22</v>
@@ -13203,7 +13214,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>22</v>
@@ -13226,7 +13237,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>22</v>
@@ -13249,7 +13260,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>22</v>
@@ -13272,7 +13283,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>22</v>
@@ -13295,7 +13306,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>22</v>
@@ -13318,7 +13329,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>22</v>
@@ -13341,7 +13352,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>22</v>
@@ -13364,7 +13375,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>22</v>
@@ -13387,7 +13398,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>22</v>
@@ -13410,7 +13421,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>22</v>
@@ -13433,7 +13444,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>22</v>
@@ -13456,7 +13467,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>22</v>
@@ -13479,7 +13490,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>22</v>
@@ -13502,7 +13513,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -13521,7 +13532,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>22</v>
@@ -13542,7 +13553,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>22</v>
@@ -13565,7 +13576,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>22</v>
@@ -13588,7 +13599,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>22</v>
@@ -13611,7 +13622,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>22</v>
@@ -13634,7 +13645,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>22</v>
@@ -13657,7 +13668,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>22</v>
@@ -13680,7 +13691,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>22</v>
@@ -13703,7 +13714,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>22</v>
@@ -13726,7 +13737,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>22</v>
@@ -13749,7 +13760,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>22</v>
@@ -13772,7 +13783,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>22</v>
@@ -13795,7 +13806,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>22</v>
@@ -13818,7 +13829,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>22</v>
@@ -13841,7 +13852,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>22</v>
@@ -13864,7 +13875,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>22</v>
@@ -13887,7 +13898,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -13906,7 +13917,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>22</v>
@@ -13931,7 +13942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>22</v>
@@ -13954,7 +13965,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>22</v>
@@ -13977,7 +13988,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>22</v>
@@ -14000,7 +14011,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>22</v>
@@ -14023,7 +14034,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -14042,7 +14053,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>22</v>
@@ -14067,7 +14078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>22</v>
@@ -14090,7 +14101,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -14109,7 +14120,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -14128,7 +14139,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -14147,7 +14158,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>22</v>
@@ -14168,7 +14179,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>22</v>
@@ -14191,7 +14202,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>22</v>
@@ -14214,7 +14225,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>22</v>
@@ -14237,7 +14248,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>22</v>
@@ -14260,7 +14271,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>22</v>
@@ -14283,7 +14294,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>22</v>
@@ -14306,7 +14317,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>22</v>
@@ -14329,7 +14340,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>22</v>
@@ -14352,7 +14363,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>22</v>
@@ -14375,7 +14386,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>22</v>
@@ -14398,7 +14409,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -14417,7 +14428,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>22</v>
@@ -14440,7 +14451,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -14459,7 +14470,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>22</v>
@@ -14484,7 +14495,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>22</v>
@@ -14507,7 +14518,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>22</v>
@@ -14530,7 +14541,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>22</v>
@@ -14553,7 +14564,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>22</v>
@@ -14576,7 +14587,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>22</v>
@@ -14599,7 +14610,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>22</v>
@@ -14622,7 +14633,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>22</v>
@@ -14645,7 +14656,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>22</v>
@@ -14668,7 +14679,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>22</v>
@@ -14691,7 +14702,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>22</v>
@@ -14714,7 +14725,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -14733,7 +14744,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>22</v>
@@ -14756,7 +14767,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -14775,7 +14786,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>22</v>
@@ -14796,7 +14807,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -14815,7 +14826,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>22</v>
@@ -14836,7 +14847,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -14855,7 +14866,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>22</v>
@@ -14876,7 +14887,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -14895,7 +14906,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>22</v>
@@ -14918,7 +14929,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -14937,7 +14948,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>22</v>
@@ -14962,7 +14973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>22</v>
@@ -14985,7 +14996,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>22</v>
@@ -15008,7 +15019,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>22</v>
@@ -15031,7 +15042,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>22</v>
@@ -15054,7 +15065,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>22</v>
@@ -15077,7 +15088,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>22</v>
@@ -15100,7 +15111,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>22</v>
@@ -15123,7 +15134,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>22</v>
@@ -15146,7 +15157,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -15165,7 +15176,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>22</v>
@@ -15188,7 +15199,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>22</v>
@@ -15211,7 +15222,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>22</v>
@@ -15234,7 +15245,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>22</v>
@@ -15257,7 +15268,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -15276,7 +15287,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>22</v>
@@ -15299,7 +15310,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>22</v>
@@ -15322,7 +15333,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>22</v>
@@ -15347,7 +15358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -15366,7 +15377,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>22</v>
@@ -15391,7 +15402,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>22</v>
@@ -15414,7 +15425,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -15433,7 +15444,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>22</v>
@@ -15454,7 +15465,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>22</v>
@@ -15475,7 +15486,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>22</v>
@@ -15498,7 +15509,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -15517,7 +15528,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -15536,7 +15547,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>22</v>
@@ -15561,7 +15572,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>22</v>
@@ -15586,7 +15597,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -15600,7 +15611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>22</v>
       </c>
@@ -15623,7 +15634,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>22</v>
       </c>
@@ -15643,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>22</v>
       </c>
@@ -15663,7 +15674,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -15683,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>22</v>
       </c>
@@ -15700,7 +15711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>22</v>
       </c>
@@ -15723,7 +15734,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>22</v>
       </c>
@@ -15746,7 +15757,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -15760,7 +15771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>22</v>
       </c>
@@ -15783,7 +15794,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>22</v>
       </c>
@@ -15806,7 +15817,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -15826,7 +15837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>22</v>
       </c>
@@ -15846,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>22</v>
       </c>
@@ -15863,7 +15874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -15889,7 +15900,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>22</v>
@@ -15918,7 +15929,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>22</v>
@@ -15957,7 +15968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -15971,7 +15982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>22</v>
       </c>
@@ -15991,7 +16002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -16005,7 +16016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>22</v>
       </c>
@@ -16025,7 +16036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>22</v>
       </c>
@@ -16045,7 +16056,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>22</v>
       </c>
@@ -16065,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>22</v>
       </c>
@@ -16085,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>22</v>
       </c>
@@ -16105,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>22</v>
       </c>
@@ -16125,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>22</v>
       </c>
@@ -16145,7 +16156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>22</v>
       </c>
@@ -16165,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>22</v>
       </c>
@@ -16185,7 +16196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16199,7 +16210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>22</v>
       </c>
@@ -16219,7 +16230,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>22</v>
       </c>
@@ -16239,7 +16250,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16255,7 +16266,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>22</v>
       </c>
@@ -16281,7 +16292,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>23</v>
@@ -16322,7 +16333,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16336,7 +16347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>22</v>
       </c>
@@ -16356,7 +16367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16370,7 +16381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>22</v>
       </c>
@@ -16409,17 +16420,17 @@
       <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>444</v>
       </c>
@@ -16430,77 +16441,77 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="D2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>609</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>612</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>614</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>615</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>443</v>
       </c>
@@ -16508,55 +16519,55 @@
         <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>617</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>618</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>619</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>620</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" t="s">
         <v>570</v>
       </c>
-      <c r="E11" t="s">
-        <v>571</v>
-      </c>
       <c r="G11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -16564,13 +16575,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>458</v>
       </c>
@@ -16581,45 +16592,45 @@
         <v>557</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" t="s">
         <v>564</v>
-      </c>
-      <c r="C16" t="s">
-        <v>565</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R16" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="U16" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="U16" s="33" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G17" t="s">
         <v>460</v>
       </c>
       <c r="H17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>551</v>
@@ -16628,16 +16639,16 @@
         <v>0.01</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -16646,10 +16657,10 @@
         <v>30</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -16660,7 +16671,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>556</v>
@@ -16669,94 +16680,94 @@
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>555</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J19" s="32">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L20" t="s">
+        <v>596</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>597</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>598</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>552</v>
@@ -16765,27 +16776,27 @@
         <v>553</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M21" s="32">
         <v>0.01</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>554</v>
@@ -16794,7 +16805,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>551</v>
@@ -16803,21 +16814,21 @@
         <v>0.01</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>556</v>
@@ -16826,7 +16837,7 @@
         <v>0.01</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>552</v>
@@ -16835,15 +16846,15 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L24" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M24" s="32">
         <v>45036000000000</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O24" s="34" t="s">
         <v>554</v>
@@ -16852,21 +16863,21 @@
         <v>2</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M25" s="33">
         <v>100</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>552</v>
       </c>
@@ -16874,7 +16885,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>554</v>
       </c>
@@ -16882,7 +16893,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/projects/training_NSGA2a.xlsx
+++ b/projects/training_NSGA2a.xlsx
@@ -2086,10 +2086,10 @@
     <t>Office NSGA 2a</t>
   </si>
   <si>
-    <t>0.2.2</t>
-  </si>
-  <si>
-    <t>1.6.1-rc1</t>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
   </si>
 </sst>
 </file>
@@ -5781,7 +5781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>cprob</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:5" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>XoverDistIdx</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:5" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,5,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>MuDistIdx</v>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>mprob</v>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>normType</v>
